--- a/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo.xlsx
+++ b/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/tests/0TestInput/ServiceTestInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D5EBD9-8E46-654A-9718-5F8391D6E0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0172F7-50F6-8345-B348-7E59232541B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="3200" windowWidth="16720" windowHeight="17120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16640" yWindow="3200" windowWidth="16720" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>Activity</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Baangt is the real deal!</t>
+  </si>
+  <si>
+    <t>alertif</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -870,18 +873,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -889,49 +886,46 @@
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -943,86 +937,89 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1030,11 +1027,8 @@
       <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1042,27 +1036,27 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1070,134 +1064,137 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
+      <c r="D36" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" t="s">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1208,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1219,26 +1216,26 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1260,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1271,24 +1268,35 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1301,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo.xlsx
+++ b/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/tests/0TestInput/ServiceTestInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0172F7-50F6-8345-B348-7E59232541B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79419D7D-7A44-E644-AC59-63FE95F88E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16640" yWindow="3200" windowWidth="16720" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -865,15 +865,15 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
